--- a/data/trans_dic/IMC_inf_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IMC_inf_R2-Edad-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con al menos sobrepeso</t>
+          <t>Población con sobrepeso u obesidad declarado</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>40,18%</t>
+          <t>50,1%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29,08%</t>
+          <t>46,53%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>37,42%</t>
+          <t>50,13%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>33,17%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>38,47%</t>
+          <t>50,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>38,07%</t>
+          <t>49,74%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>37,43%</t>
+          <t>45,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>29,89%</t>
+          <t>36,61%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>39,38%</t>
+          <t>50,06%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>48,25%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>37,42%</t>
+          <t>47,93%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>26,46%</t>
+          <t>35,16%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>32,83; 47,21</t>
+          <t>37,44; 62,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,48; 35,54</t>
+          <t>32,06; 62,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,1; 44,07</t>
+          <t>35,89; 63,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,14; 32,45</t>
+          <t>18,08; 51,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,59; 46,13</t>
+          <t>34,92; 64,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,05; 44,02</t>
+          <t>36,53; 64,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,93; 44,11</t>
+          <t>33,68; 60,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,18; 39,7</t>
+          <t>23,41; 53,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,09; 45,18</t>
+          <t>41,29; 59,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,33; 38,04</t>
+          <t>38,0; 58,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,48; 41,81</t>
+          <t>38,03; 57,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,83; 33,28</t>
+          <t>24,18; 46,62</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>45,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>51,13%</t>
+          <t>60,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>42,95%</t>
+          <t>48,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>43,47%</t>
+          <t>46,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,53%</t>
+          <t>44,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>38,88%</t>
+          <t>45,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>35,48%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,04%</t>
+          <t>38,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>40,61%</t>
+          <t>44,71%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>45,4%</t>
+          <t>53,84%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>39,59%</t>
+          <t>45,15%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>38,99%</t>
+          <t>42,9%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,06; 45,6</t>
+          <t>39,44; 50,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,65; 55,73</t>
+          <t>55,52; 66,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>38,24; 48,41</t>
+          <t>44,01; 54,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37,54; 50,38</t>
+          <t>40,9; 53,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,33; 45,28</t>
+          <t>38,86; 49,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,28; 44,15</t>
+          <t>40,32; 51,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,4; 40,65</t>
+          <t>35,36; 46,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,42; 40,29</t>
+          <t>32,32; 45,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,2; 43,92</t>
+          <t>41,15; 48,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>42,05; 49,28</t>
+          <t>49,82; 57,86</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>35,88; 43,34</t>
+          <t>41,43; 49,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>34,42; 43,54</t>
+          <t>38,34; 47,76</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>47,5%</t>
+          <t>50,52%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>43,76%</t>
+          <t>49,33%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>45,65%</t>
+          <t>50,08%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>37,59%</t>
+          <t>42,56%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>40,9%</t>
+          <t>41,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>45,94%</t>
+          <t>52,41%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>35,15%</t>
+          <t>38,86%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>32,73%</t>
+          <t>35,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>44,37%</t>
+          <t>46,36%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>44,84%</t>
+          <t>50,85%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>40,39%</t>
+          <t>44,49%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>35,32%</t>
+          <t>38,95%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,82; 54,0</t>
+          <t>43,28; 57,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,55; 50,55</t>
+          <t>42,47; 56,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,4; 51,96</t>
+          <t>43,97; 56,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>31,57; 43,97</t>
+          <t>36,07; 49,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,97; 47,66</t>
+          <t>34,61; 49,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,34; 53,21</t>
+          <t>44,78; 59,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,23; 41,09</t>
+          <t>33,28; 45,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,97; 40,26</t>
+          <t>28,34; 41,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>39,51; 49,36</t>
+          <t>41,43; 51,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>39,85; 49,33</t>
+          <t>46,23; 56,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,32; 44,89</t>
+          <t>40,22; 49,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>31,01; 39,62</t>
+          <t>34,06; 43,41</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>40,74%</t>
+          <t>41,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>37,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>31,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,94%</t>
+          <t>32,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,66%</t>
+          <t>26,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>21,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,28%</t>
+          <t>29,81%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>29,45%</t>
+          <t>32,37%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>26,41%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>25,94%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,35; 46,18</t>
+          <t>35,77; 47,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,6; 40,06</t>
+          <t>31,97; 44,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,14; 33,67</t>
+          <t>25,72; 38,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,44; 35,93</t>
+          <t>26,84; 39,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,31; 21,89</t>
+          <t>13,49; 22,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,71; 31,06</t>
+          <t>20,98; 33,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,66; 24,53</t>
+          <t>16,75; 28,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,06; 20,56</t>
+          <t>13,72; 22,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,0; 33,03</t>
+          <t>26,17; 33,53</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,26; 33,45</t>
+          <t>28,42; 36,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,74; 27,36</t>
+          <t>22,3; 30,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,74; 27,23</t>
+          <t>22,34; 30,21</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>41,95%</t>
+          <t>45,42%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>41,22%</t>
+          <t>50,48%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>39,16%</t>
+          <t>44,73%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>39,3%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>35,24%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>42,15%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>31,76%</t>
+          <t>34,88%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>26,17%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>40,45%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>39,09%</t>
+          <t>46,43%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>39,97%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>30,7%</t>
+          <t>34,39%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>38,98; 44,8</t>
+          <t>42,42; 48,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38,39; 44,21</t>
+          <t>47,01; 53,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,37; 42,4</t>
+          <t>41,43; 48,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>31,53; 38,6</t>
+          <t>35,48; 42,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,57; 36,5</t>
+          <t>32,22; 38,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,74; 39,81</t>
+          <t>38,92; 45,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,95; 34,63</t>
+          <t>31,59; 38,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,33; 29,32</t>
+          <t>25,79; 32,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>35,82; 40,13</t>
+          <t>38,14; 42,74</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>37,08; 41,26</t>
+          <t>43,91; 48,76</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,48; 37,82</t>
+          <t>37,39; 42,21</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>28,67; 33,33</t>
+          <t>31,78; 37,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IMC_inf_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IMC_inf_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>50,0%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>49,74%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>45,84%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>35,86%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>50,1%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>46,53%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>50,13%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>33,17%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>50,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>49,74%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>45,84%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36,61%</t>
+          <t>33,88%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>35,16%</t>
+          <t>35,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,44; 62,56</t>
+          <t>37,27; 64,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,06; 62,4</t>
+          <t>35,96; 64,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,89; 63,77</t>
+          <t>32,09; 60,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,08; 51,89</t>
+          <t>22,42; 52,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,92; 64,27</t>
+          <t>37,71; 62,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,53; 64,16</t>
+          <t>30,83; 62,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,68; 60,12</t>
+          <t>36,21; 64,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>23,41; 53,28</t>
+          <t>18,01; 50,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>41,29; 59,89</t>
+          <t>40,15; 58,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>38,0; 58,43</t>
+          <t>38,11; 57,8</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38,03; 57,83</t>
+          <t>38,9; 57,88</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,18; 46,62</t>
+          <t>24,34; 46,86</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>44,35%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>45,95%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>40,46%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>39,02%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>45,06%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>60,81%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>48,98%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>46,6%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>44,35%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>45,95%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>40,46%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>38,58%</t>
+          <t>46,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>42,9%</t>
+          <t>43,4%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>39,44; 50,14</t>
+          <t>39,06; 49,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>55,52; 66,37</t>
+          <t>40,42; 52,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,01; 54,57</t>
+          <t>34,72; 46,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>40,9; 53,44</t>
+          <t>32,66; 46,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,86; 49,36</t>
+          <t>39,46; 50,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,32; 51,63</t>
+          <t>54,54; 65,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,36; 46,32</t>
+          <t>43,85; 54,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32,32; 45,44</t>
+          <t>40,39; 53,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>41,15; 48,54</t>
+          <t>41,04; 48,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>49,82; 57,86</t>
+          <t>49,88; 57,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>41,43; 49,18</t>
+          <t>41,17; 49,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>38,34; 47,76</t>
+          <t>38,42; 48,03</t>
         </is>
       </c>
     </row>
@@ -936,44 +936,44 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>41,92%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>52,41%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>38,86%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>35,55%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>50,52%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>49,33%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>50,08%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>42,56%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>41,92%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>52,41%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>38,86%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>35,04%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
           <t>46,36%</t>
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>38,95%</t>
+          <t>38,94%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43,28; 57,5</t>
+          <t>35,21; 49,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,47; 56,91</t>
+          <t>44,35; 59,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>43,97; 56,42</t>
+          <t>32,84; 44,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>36,07; 49,15</t>
+          <t>28,31; 42,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,61; 49,2</t>
+          <t>43,8; 57,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,78; 59,25</t>
+          <t>42,6; 56,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,28; 45,29</t>
+          <t>44,22; 56,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,34; 41,66</t>
+          <t>33,98; 48,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>41,43; 51,23</t>
+          <t>41,36; 51,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>46,23; 56,07</t>
+          <t>46,27; 56,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>40,22; 49,17</t>
+          <t>39,84; 48,98</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>34,06; 43,41</t>
+          <t>34,6; 44,12</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>17,41%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26,83%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>21,48%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16,87%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>41,52%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>37,75%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>31,38%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>32,97%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>17,41%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>26,83%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>21,48%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>32,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>25,94%</t>
+          <t>25,14%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,77; 47,17</t>
+          <t>13,25; 21,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,97; 44,22</t>
+          <t>21,77; 33,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,72; 38,87</t>
+          <t>16,63; 27,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,84; 39,87</t>
+          <t>10,66; 22,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,49; 22,62</t>
+          <t>36,06; 47,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,98; 33,0</t>
+          <t>32,22; 44,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,75; 28,06</t>
+          <t>25,23; 37,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,72; 22,97</t>
+          <t>26,18; 39,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,17; 33,53</t>
+          <t>25,97; 33,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,42; 36,65</t>
+          <t>28,56; 36,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>22,3; 30,68</t>
+          <t>21,96; 30,25</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,34; 30,21</t>
+          <t>20,5; 30,35</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>35,24%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>42,15%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>34,88%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28,33%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>45,42%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>50,48%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>44,73%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>39,3%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>35,24%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>42,15%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>34,88%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>28,96%</t>
+          <t>39,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>34,0%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,42; 48,64</t>
+          <t>32,29; 38,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>47,01; 53,89</t>
+          <t>38,97; 45,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>41,43; 48,03</t>
+          <t>31,75; 38,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35,48; 42,83</t>
+          <t>23,63; 32,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>32,22; 38,63</t>
+          <t>42,26; 48,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,92; 45,65</t>
+          <t>46,95; 54,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>31,59; 38,16</t>
+          <t>41,18; 48,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,79; 32,41</t>
+          <t>34,86; 42,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>38,14; 42,74</t>
+          <t>38,08; 42,61</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>43,91; 48,76</t>
+          <t>43,86; 49,11</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>37,39; 42,21</t>
+          <t>37,54; 42,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>31,78; 37,2</t>
+          <t>30,66; 36,92</t>
         </is>
       </c>
     </row>
